--- a/biology/Histoire de la zoologie et de la botanique/Griff/Griff..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Griff/Griff..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Griffith est un médecin, un naturaliste et un  botaniste britannique, né le 4 mars 1810 et mort le 9 février 1845.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est chirurgien dans la région de Tenasserim en Birmanie. Il étudie la flore locale et fait des voyages scientifiques dans la vallée de la rivière Barak dans l’Assam. Il explore également diverses régions de Birmanie, remonte les rivières dont l’Irrawadi jusqu’à Rangoon. Il visite les hauts plateaux de Sikkim et des régions himalayennes autour de Shimla. Il est nommé à Melaka où il meurt d’une maladie parasitaire du foie. Il est membre de la Société linnéenne de Londres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est chirurgien dans la région de Tenasserim en Birmanie. Il étudie la flore locale et fait des voyages scientifiques dans la vallée de la rivière Barak dans l’Assam. Il explore également diverses régions de Birmanie, remonte les rivières dont l’Irrawadi jusqu’à Rangoon. Il visite les hauts plateaux de Sikkim et des régions himalayennes autour de Shimla. Il est nommé à Melaka où il meurt d’une maladie parasitaire du foie. Il est membre de la Société linnéenne de Londres.
 </t>
         </is>
       </c>
